--- a/data/pca/factorExposure/factorExposure_2018-05-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.007874348187536009</v>
+        <v>-0.01713930933743077</v>
       </c>
       <c r="C2">
-        <v>-0.02666465732222617</v>
+        <v>0.01838080459877898</v>
       </c>
       <c r="D2">
-        <v>-0.02475365760745899</v>
+        <v>-0.02841970692056</v>
       </c>
       <c r="E2">
-        <v>-0.006405842394952318</v>
+        <v>-0.01821793868544537</v>
       </c>
       <c r="F2">
-        <v>-0.1239334724242969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.004493434870863366</v>
+      </c>
+      <c r="G2">
+        <v>0.04612366241014777</v>
+      </c>
+      <c r="H2">
+        <v>-0.05208434510208887</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.07177553102127153</v>
+        <v>-0.07363533946420299</v>
       </c>
       <c r="C3">
-        <v>-0.05417520380525829</v>
+        <v>-0.01131670141050441</v>
       </c>
       <c r="D3">
-        <v>-0.06461435058303003</v>
+        <v>-0.07216626263373001</v>
       </c>
       <c r="E3">
-        <v>0.08844332087083846</v>
+        <v>-0.01009007913928911</v>
       </c>
       <c r="F3">
-        <v>-0.4070752788475858</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.0185320646767048</v>
+      </c>
+      <c r="G3">
+        <v>0.1737460941117305</v>
+      </c>
+      <c r="H3">
+        <v>-0.1633949677001667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04298041213801079</v>
+        <v>-0.0409747965580184</v>
       </c>
       <c r="C4">
-        <v>-0.01750648915140701</v>
+        <v>0.00467848155767732</v>
       </c>
       <c r="D4">
-        <v>-0.02390265520137938</v>
+        <v>-0.06190582364166078</v>
       </c>
       <c r="E4">
-        <v>-0.04132680813936828</v>
+        <v>0.01803350497949447</v>
       </c>
       <c r="F4">
-        <v>-0.08321031147766858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.04388932220074532</v>
+      </c>
+      <c r="G4">
+        <v>0.04194507272813636</v>
+      </c>
+      <c r="H4">
+        <v>-0.06104922769537747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0319576910501212</v>
+        <v>-0.02436840899078791</v>
       </c>
       <c r="C6">
-        <v>-0.01781220406477293</v>
+        <v>0.001007857140667011</v>
       </c>
       <c r="D6">
-        <v>-0.01799680508335782</v>
+        <v>-0.06171709363210304</v>
       </c>
       <c r="E6">
-        <v>-0.02442161682965635</v>
+        <v>0.004133635684356192</v>
       </c>
       <c r="F6">
-        <v>-0.01535900346623936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.03016787614188855</v>
+      </c>
+      <c r="G6">
+        <v>0.01171799537615716</v>
+      </c>
+      <c r="H6">
+        <v>-0.06335406748100725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03974645504282834</v>
+        <v>-0.01620526395353761</v>
       </c>
       <c r="C7">
-        <v>0.02490527929947356</v>
+        <v>0.003166476121838956</v>
       </c>
       <c r="D7">
-        <v>-0.03253116507070378</v>
+        <v>-0.03333249608807559</v>
       </c>
       <c r="E7">
-        <v>-0.02701759853572524</v>
+        <v>0.04253569100815198</v>
       </c>
       <c r="F7">
-        <v>-0.05922437229320815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.002184720092502149</v>
+      </c>
+      <c r="G7">
+        <v>0.02762148564085243</v>
+      </c>
+      <c r="H7">
+        <v>-0.04588190802431886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01517868078904187</v>
+        <v>-0.003903063629436896</v>
       </c>
       <c r="C8">
-        <v>-0.008628623600195475</v>
+        <v>-0.001596620623959887</v>
       </c>
       <c r="D8">
-        <v>-0.03192762947669424</v>
+        <v>-0.01416786270743421</v>
       </c>
       <c r="E8">
-        <v>-0.02897386511471704</v>
+        <v>0.005332998963100643</v>
       </c>
       <c r="F8">
-        <v>-0.09949304624210759</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01765692592087489</v>
+      </c>
+      <c r="G8">
+        <v>0.04225975469008725</v>
+      </c>
+      <c r="H8">
+        <v>-0.04736893768196589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03368976124151724</v>
+        <v>-0.03123044042723016</v>
       </c>
       <c r="C9">
-        <v>-0.01374557279765135</v>
+        <v>0.001386732521666783</v>
       </c>
       <c r="D9">
-        <v>-0.02688495005195616</v>
+        <v>-0.046099985477809</v>
       </c>
       <c r="E9">
-        <v>-0.03017634550167585</v>
+        <v>0.007967177842522126</v>
       </c>
       <c r="F9">
-        <v>-0.09853381196800791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02025801438548265</v>
+      </c>
+      <c r="G9">
+        <v>0.04681265622603777</v>
+      </c>
+      <c r="H9">
+        <v>-0.05983259334762152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03221873068157242</v>
+        <v>-0.1213002276505645</v>
       </c>
       <c r="C10">
-        <v>-0.007301607225040935</v>
+        <v>-0.004963741089552954</v>
       </c>
       <c r="D10">
-        <v>0.1241069659423953</v>
+        <v>0.160524250046117</v>
       </c>
       <c r="E10">
-        <v>0.1023359137111485</v>
+        <v>0.0005749846882469006</v>
       </c>
       <c r="F10">
-        <v>-0.06134010393708204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03547602704455852</v>
+      </c>
+      <c r="G10">
+        <v>0.0331177141088699</v>
+      </c>
+      <c r="H10">
+        <v>-0.004349970559086229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02596108274302761</v>
+        <v>-0.01723036319985493</v>
       </c>
       <c r="C11">
-        <v>-0.02341521373820227</v>
+        <v>-0.009988534737463825</v>
       </c>
       <c r="D11">
-        <v>-0.0313485931685772</v>
+        <v>-0.04951964437129638</v>
       </c>
       <c r="E11">
-        <v>-0.02834218223051009</v>
+        <v>-0.001755631412951913</v>
       </c>
       <c r="F11">
-        <v>-0.05285576400945186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.01162412644770724</v>
+      </c>
+      <c r="G11">
+        <v>0.02708122782576979</v>
+      </c>
+      <c r="H11">
+        <v>-0.0517569250912568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03517436563746813</v>
+        <v>-0.02220569329250684</v>
       </c>
       <c r="C12">
-        <v>-0.02314953913712019</v>
+        <v>-0.006459568120200308</v>
       </c>
       <c r="D12">
-        <v>-0.02617775990233902</v>
+        <v>-0.0480776787492728</v>
       </c>
       <c r="E12">
-        <v>-0.03692383600316104</v>
+        <v>0.008879313587790349</v>
       </c>
       <c r="F12">
-        <v>-0.02300746207605793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01452621354128524</v>
+      </c>
+      <c r="G12">
+        <v>0.007185177577498074</v>
+      </c>
+      <c r="H12">
+        <v>-0.02383370711565446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007871860037705482</v>
+        <v>-0.02369514591734161</v>
       </c>
       <c r="C13">
-        <v>-0.02287544880050822</v>
+        <v>0.01413926637774378</v>
       </c>
       <c r="D13">
-        <v>-0.007338386396531409</v>
+        <v>-0.02375694335504833</v>
       </c>
       <c r="E13">
-        <v>-0.01181748802729801</v>
+        <v>-0.01170231595946809</v>
       </c>
       <c r="F13">
-        <v>-0.09167275834306135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02124622074100205</v>
+      </c>
+      <c r="G13">
+        <v>0.06204152331190776</v>
+      </c>
+      <c r="H13">
+        <v>-0.07925040572531304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02079956115303286</v>
+        <v>-0.01551625676387495</v>
       </c>
       <c r="C14">
-        <v>-8.311222956203735e-06</v>
+        <v>0.001220604086329451</v>
       </c>
       <c r="D14">
-        <v>-0.01634923578282583</v>
+        <v>-0.0155629781943002</v>
       </c>
       <c r="E14">
-        <v>-0.02684698082006602</v>
+        <v>0.01469323488089565</v>
       </c>
       <c r="F14">
-        <v>-0.06295533302515145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01422175040485244</v>
+      </c>
+      <c r="G14">
+        <v>0.04043151414767498</v>
+      </c>
+      <c r="H14">
+        <v>-0.01675588097045679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02617811935984677</v>
+        <v>-0.0203976131705233</v>
       </c>
       <c r="C16">
-        <v>-0.02272285200786906</v>
+        <v>-0.009763852400337503</v>
       </c>
       <c r="D16">
-        <v>-0.03249043330992039</v>
+        <v>-0.04064854058021376</v>
       </c>
       <c r="E16">
-        <v>-0.03455932863305931</v>
+        <v>0.001959235115673553</v>
       </c>
       <c r="F16">
-        <v>-0.04978107004147257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01510967727421879</v>
+      </c>
+      <c r="G16">
+        <v>0.02177344813335957</v>
+      </c>
+      <c r="H16">
+        <v>-0.0399025962118965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02682103211084143</v>
+        <v>-0.02343904401343967</v>
       </c>
       <c r="C19">
-        <v>-0.02280626728384997</v>
+        <v>0.001294204634409934</v>
       </c>
       <c r="D19">
-        <v>-0.03327530491607655</v>
+        <v>-0.04421025100948965</v>
       </c>
       <c r="E19">
-        <v>-0.02608622916377852</v>
+        <v>0.005993252282062656</v>
       </c>
       <c r="F19">
-        <v>-0.09953965673386475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02476070598674763</v>
+      </c>
+      <c r="G19">
+        <v>0.05469562187522924</v>
+      </c>
+      <c r="H19">
+        <v>-0.06943046194705825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001349351531912738</v>
+        <v>-0.007724272450902137</v>
       </c>
       <c r="C20">
-        <v>0.00669853064507388</v>
+        <v>0.005589796802188822</v>
       </c>
       <c r="D20">
-        <v>-0.0144276574872878</v>
+        <v>-0.02261105403839522</v>
       </c>
       <c r="E20">
-        <v>-0.01941773168971677</v>
+        <v>0.004568690554350096</v>
       </c>
       <c r="F20">
-        <v>-0.08401556188285508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01393268932111269</v>
+      </c>
+      <c r="G20">
+        <v>0.05574985358878759</v>
+      </c>
+      <c r="H20">
+        <v>-0.03275270329667879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01463162370439563</v>
+        <v>-0.01281416927685021</v>
       </c>
       <c r="C21">
-        <v>0.01843268648554777</v>
+        <v>0.007097150234364314</v>
       </c>
       <c r="D21">
-        <v>-0.03740694100125405</v>
+        <v>-0.02576178021976206</v>
       </c>
       <c r="E21">
-        <v>-0.01406557584468569</v>
+        <v>0.02046780226760943</v>
       </c>
       <c r="F21">
-        <v>-0.04331992101388851</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.007561103786482876</v>
+      </c>
+      <c r="G21">
+        <v>0.0481576413040711</v>
+      </c>
+      <c r="H21">
+        <v>-0.04669175713876909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02379431897691376</v>
+        <v>-0.0154389531809773</v>
       </c>
       <c r="C24">
-        <v>-0.02056127682707247</v>
+        <v>-0.004331355906600823</v>
       </c>
       <c r="D24">
-        <v>-0.0151670037443826</v>
+        <v>-0.04357268536404364</v>
       </c>
       <c r="E24">
-        <v>-0.02279151298402831</v>
+        <v>0.0003181970791644297</v>
       </c>
       <c r="F24">
-        <v>-0.04994850271127595</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.01036403848829136</v>
+      </c>
+      <c r="G24">
+        <v>0.01685278830935153</v>
+      </c>
+      <c r="H24">
+        <v>-0.04811961707488822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02701972626166002</v>
+        <v>-0.02728062802296779</v>
       </c>
       <c r="C25">
-        <v>-0.01855477734659842</v>
+        <v>-0.002002437042171661</v>
       </c>
       <c r="D25">
-        <v>-0.03282537528484596</v>
+        <v>-0.04637537940969693</v>
       </c>
       <c r="E25">
-        <v>-0.02393746613650309</v>
+        <v>0.005920553611428679</v>
       </c>
       <c r="F25">
-        <v>-0.05236183400276362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01794166464551242</v>
+      </c>
+      <c r="G25">
+        <v>0.02169120599827939</v>
+      </c>
+      <c r="H25">
+        <v>-0.04523839289292952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01514518648695463</v>
+        <v>-0.01465549778332379</v>
       </c>
       <c r="C26">
-        <v>-0.01369586591139171</v>
+        <v>0.01907697982634928</v>
       </c>
       <c r="D26">
-        <v>-0.0229755824203658</v>
+        <v>-0.009925310670062658</v>
       </c>
       <c r="E26">
-        <v>-0.00221382137690702</v>
+        <v>0.000187621461838644</v>
       </c>
       <c r="F26">
-        <v>-0.0692350504500119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.002596179746989912</v>
+      </c>
+      <c r="G26">
+        <v>0.02985486355742548</v>
+      </c>
+      <c r="H26">
+        <v>-0.02595084193902778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.03983841761984854</v>
+        <v>-0.01835431290795841</v>
       </c>
       <c r="C27">
-        <v>-0.02885850155162947</v>
+        <v>-0.006702495825447905</v>
       </c>
       <c r="D27">
-        <v>0.008350374628831243</v>
+        <v>-0.0145634223066194</v>
       </c>
       <c r="E27">
-        <v>-0.03892437826612956</v>
+        <v>0.004254470071728381</v>
       </c>
       <c r="F27">
-        <v>-0.03579364068207483</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.0120915235031003</v>
+      </c>
+      <c r="G27">
+        <v>0.006772450769307326</v>
+      </c>
+      <c r="H27">
+        <v>0.0001005453750382592</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05677359079679458</v>
+        <v>-0.1695873300220739</v>
       </c>
       <c r="C28">
-        <v>-0.01359541673553642</v>
+        <v>0.003975736682673859</v>
       </c>
       <c r="D28">
-        <v>0.1709970553943487</v>
+        <v>0.2054060752266317</v>
       </c>
       <c r="E28">
-        <v>0.1306898305062901</v>
+        <v>0.01144840822935959</v>
       </c>
       <c r="F28">
-        <v>-0.05240809686896426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03041865546060312</v>
+      </c>
+      <c r="G28">
+        <v>0.01807161797495086</v>
+      </c>
+      <c r="H28">
+        <v>0.006766252766933144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02466797817537389</v>
+        <v>-0.02014809767343432</v>
       </c>
       <c r="C29">
-        <v>-0.002352003218479055</v>
+        <v>-0.0003375894386479509</v>
       </c>
       <c r="D29">
-        <v>-0.01829978235196061</v>
+        <v>-0.01627284880879034</v>
       </c>
       <c r="E29">
-        <v>-0.0316525786237687</v>
+        <v>0.01517066882769952</v>
       </c>
       <c r="F29">
-        <v>-0.05987134199136538</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.01564827951141567</v>
+      </c>
+      <c r="G29">
+        <v>0.03926864385666052</v>
+      </c>
+      <c r="H29">
+        <v>-0.009050524434247068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04841692275606856</v>
+        <v>-0.04406377920548757</v>
       </c>
       <c r="C30">
-        <v>-0.08211832795552843</v>
+        <v>0.002539482202887048</v>
       </c>
       <c r="D30">
-        <v>-0.02831815511623601</v>
+        <v>-0.0939383908791661</v>
       </c>
       <c r="E30">
-        <v>-0.05879185217924465</v>
+        <v>-0.03176329080490703</v>
       </c>
       <c r="F30">
-        <v>-0.1103806596895904</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.0478721513037083</v>
+      </c>
+      <c r="G30">
+        <v>0.06193735853638606</v>
+      </c>
+      <c r="H30">
+        <v>-0.08128094679719636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04628299193138723</v>
+        <v>-0.0476380544971576</v>
       </c>
       <c r="C31">
-        <v>-0.04342489434753714</v>
+        <v>-0.009472914761935297</v>
       </c>
       <c r="D31">
-        <v>-0.01745750148471456</v>
+        <v>-0.02931562523593222</v>
       </c>
       <c r="E31">
-        <v>-0.02335577465169704</v>
+        <v>-0.004256024498333177</v>
       </c>
       <c r="F31">
-        <v>-0.05076888853065002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.005684711952516884</v>
+      </c>
+      <c r="G31">
+        <v>0.01862093396434716</v>
+      </c>
+      <c r="H31">
+        <v>-0.006244864890097007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02624212037720307</v>
+        <v>-0.01305605905497458</v>
       </c>
       <c r="C32">
-        <v>0.007633338193413498</v>
+        <v>-0.01359628854350637</v>
       </c>
       <c r="D32">
-        <v>-0.04838899326005745</v>
+        <v>-0.01107203984432319</v>
       </c>
       <c r="E32">
-        <v>-0.0539194454561575</v>
+        <v>0.02956197517229821</v>
       </c>
       <c r="F32">
-        <v>-0.07710823136262705</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03896629004252698</v>
+      </c>
+      <c r="G32">
+        <v>0.03176839771509408</v>
+      </c>
+      <c r="H32">
+        <v>-0.05993848250338177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02743261814060044</v>
+        <v>-0.02749024310873319</v>
       </c>
       <c r="C33">
-        <v>-0.04816353489377111</v>
+        <v>0.0006013897976277439</v>
       </c>
       <c r="D33">
-        <v>-0.04948697726125801</v>
+        <v>-0.0458858912346024</v>
       </c>
       <c r="E33">
-        <v>-0.01602787671938076</v>
+        <v>-0.01886174917252865</v>
       </c>
       <c r="F33">
-        <v>-0.08570007144056785</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.0004272412670119919</v>
+      </c>
+      <c r="G33">
+        <v>0.04714588903467378</v>
+      </c>
+      <c r="H33">
+        <v>-0.05515733126048093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02910852788923854</v>
+        <v>-0.02491003944847857</v>
       </c>
       <c r="C34">
-        <v>-0.01473484569969789</v>
+        <v>-0.0179193598575895</v>
       </c>
       <c r="D34">
-        <v>-0.03386451244552709</v>
+        <v>-0.04385570247460797</v>
       </c>
       <c r="E34">
-        <v>-0.0384445482837017</v>
+        <v>0.01198125365293817</v>
       </c>
       <c r="F34">
-        <v>-0.05894094674314269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01798012020596302</v>
+      </c>
+      <c r="G34">
+        <v>0.01407594943505528</v>
+      </c>
+      <c r="H34">
+        <v>-0.03823819307819482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01674306118916369</v>
+        <v>-0.01670186092394805</v>
       </c>
       <c r="C36">
-        <v>-0.0006073443454057135</v>
+        <v>0.006477936814007846</v>
       </c>
       <c r="D36">
-        <v>-0.01516574526050619</v>
+        <v>-0.006291258823585344</v>
       </c>
       <c r="E36">
-        <v>-0.01617060961639191</v>
+        <v>0.009438823087574046</v>
       </c>
       <c r="F36">
-        <v>-0.0377189486183556</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.002555163089724935</v>
+      </c>
+      <c r="G36">
+        <v>0.02117296836119928</v>
+      </c>
+      <c r="H36">
+        <v>-0.01867247370633255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00378760577645378</v>
+        <v>-0.02533973230896192</v>
       </c>
       <c r="C38">
-        <v>-0.004791336323538516</v>
+        <v>-0.01534769896491771</v>
       </c>
       <c r="D38">
-        <v>-0.008469767954516006</v>
+        <v>-0.01520490940150179</v>
       </c>
       <c r="E38">
-        <v>0.02539174988412714</v>
+        <v>-0.001182463024125525</v>
       </c>
       <c r="F38">
-        <v>-0.04874059625684053</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.00890448618831711</v>
+      </c>
+      <c r="G38">
+        <v>0.0246332752757858</v>
+      </c>
+      <c r="H38">
+        <v>-0.04529062077062805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02676935695782141</v>
+        <v>-0.010878444588769</v>
       </c>
       <c r="C39">
-        <v>-0.0245616597883208</v>
+        <v>-0.006178620034934204</v>
       </c>
       <c r="D39">
-        <v>-0.04473120018183183</v>
+        <v>-0.0895767486555251</v>
       </c>
       <c r="E39">
-        <v>-0.04226354696617232</v>
+        <v>-0.007482264089011555</v>
       </c>
       <c r="F39">
-        <v>-0.06995310023554183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01741606402036557</v>
+      </c>
+      <c r="G39">
+        <v>0.04048185281376666</v>
+      </c>
+      <c r="H39">
+        <v>-0.07958972851164015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01479415375058828</v>
+        <v>-0.02736759152122301</v>
       </c>
       <c r="C40">
-        <v>-0.05328640687885024</v>
+        <v>-0.0002231478735518764</v>
       </c>
       <c r="D40">
-        <v>-0.008121869896571824</v>
+        <v>-0.03457912732913157</v>
       </c>
       <c r="E40">
-        <v>-0.0416202611514515</v>
+        <v>-0.02502281142898208</v>
       </c>
       <c r="F40">
-        <v>-0.09857823785534417</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03500139700230512</v>
+      </c>
+      <c r="G40">
+        <v>0.02245212835556766</v>
+      </c>
+      <c r="H40">
+        <v>-0.07402473724034084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.002890846509683082</v>
+        <v>-0.01280494332582132</v>
       </c>
       <c r="C41">
-        <v>-0.0007348805678621718</v>
+        <v>0.002804465080407461</v>
       </c>
       <c r="D41">
-        <v>-0.009363341301538385</v>
+        <v>0.01370741324031201</v>
       </c>
       <c r="E41">
-        <v>0.002599074953175642</v>
+        <v>0.002232336764319262</v>
       </c>
       <c r="F41">
-        <v>-0.01756057587796247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.003339896925301951</v>
+      </c>
+      <c r="G41">
+        <v>0.001655168515195682</v>
+      </c>
+      <c r="H41">
+        <v>0.002135316478652156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2300203356613969</v>
+        <v>-0.1433138948775269</v>
       </c>
       <c r="C42">
-        <v>-0.2597601374716709</v>
+        <v>0.07609931720976065</v>
       </c>
       <c r="D42">
-        <v>-0.4770038402244885</v>
+        <v>-0.240518780924754</v>
       </c>
       <c r="E42">
-        <v>0.7055106594763876</v>
+        <v>-0.2175900094892275</v>
       </c>
       <c r="F42">
-        <v>0.3137845461998962</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8976031645424684</v>
+      </c>
+      <c r="G42">
+        <v>-0.2038444768545363</v>
+      </c>
+      <c r="H42">
+        <v>-0.003672602767350607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.002063282334307289</v>
+        <v>-0.01396408461713823</v>
       </c>
       <c r="C43">
-        <v>-0.003465544446056695</v>
+        <v>0.003057663119103566</v>
       </c>
       <c r="D43">
-        <v>-0.01453346432964274</v>
+        <v>0.009419907621575432</v>
       </c>
       <c r="E43">
-        <v>0.002297220522766001</v>
+        <v>-0.00147702386380953</v>
       </c>
       <c r="F43">
-        <v>-0.03805189375796485</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004131741846013808</v>
+      </c>
+      <c r="G43">
+        <v>0.004518691238417161</v>
+      </c>
+      <c r="H43">
+        <v>-0.01103570732437147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02079182672372481</v>
+        <v>-0.01470844254112181</v>
       </c>
       <c r="C44">
-        <v>-0.0043365036305839</v>
+        <v>-0.004474394879191619</v>
       </c>
       <c r="D44">
-        <v>-0.02681164415053499</v>
+        <v>-0.03927031796828925</v>
       </c>
       <c r="E44">
-        <v>-0.001846230661677178</v>
+        <v>0.008373505157549479</v>
       </c>
       <c r="F44">
-        <v>-0.1129318487216875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.001119381801259562</v>
+      </c>
+      <c r="G44">
+        <v>0.04237599662093424</v>
+      </c>
+      <c r="H44">
+        <v>-0.07344725426556246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01764502203448226</v>
+        <v>-0.01233938805992232</v>
       </c>
       <c r="C46">
-        <v>-0.01408248582370318</v>
+        <v>0.005654513006277247</v>
       </c>
       <c r="D46">
-        <v>-0.03884603552464011</v>
+        <v>-0.01520392545627521</v>
       </c>
       <c r="E46">
-        <v>-0.02876580708787451</v>
+        <v>0.001239756204777267</v>
       </c>
       <c r="F46">
-        <v>-0.07580517665701057</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.01082731361680773</v>
+      </c>
+      <c r="G46">
+        <v>0.04365364853861608</v>
+      </c>
+      <c r="H46">
+        <v>-0.01297595693079184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0762019646417546</v>
+        <v>-0.06881902749027215</v>
       </c>
       <c r="C47">
-        <v>-0.05872782727040674</v>
+        <v>-0.02509579351692083</v>
       </c>
       <c r="D47">
-        <v>-0.01400650966930946</v>
+        <v>-0.05577510173921393</v>
       </c>
       <c r="E47">
-        <v>-0.03649367655193366</v>
+        <v>0.004165546299897097</v>
       </c>
       <c r="F47">
-        <v>-0.03989587768031861</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01362257877921239</v>
+      </c>
+      <c r="G47">
+        <v>-0.009078005922983849</v>
+      </c>
+      <c r="H47">
+        <v>0.01652808657771773</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01629999342326743</v>
+        <v>-0.01836926694666834</v>
       </c>
       <c r="C48">
-        <v>-0.01202082280324786</v>
+        <v>-0.00463135225723371</v>
       </c>
       <c r="D48">
-        <v>-0.02123442262341758</v>
+        <v>-0.01485794791716214</v>
       </c>
       <c r="E48">
-        <v>-0.01601068152640019</v>
+        <v>0.001555613774217813</v>
       </c>
       <c r="F48">
-        <v>-0.04175061605818924</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.006624973276411841</v>
+      </c>
+      <c r="G48">
+        <v>0.02337475358791382</v>
+      </c>
+      <c r="H48">
+        <v>-0.02077364895693361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08004093763847743</v>
+        <v>-0.06797366337779696</v>
       </c>
       <c r="C50">
-        <v>-0.04389776317036798</v>
+        <v>-0.02240530798082497</v>
       </c>
       <c r="D50">
-        <v>-0.03375478635888133</v>
+        <v>-0.05414697548323148</v>
       </c>
       <c r="E50">
-        <v>-0.03002374464024473</v>
+        <v>0.01404298492394636</v>
       </c>
       <c r="F50">
-        <v>-0.03992474096963825</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.004707785423415773</v>
+      </c>
+      <c r="G50">
+        <v>0.005328270441954264</v>
+      </c>
+      <c r="H50">
+        <v>0.007669405674970806</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01743483523303892</v>
+        <v>-0.01828040329117565</v>
       </c>
       <c r="C51">
-        <v>-0.006004745595369097</v>
+        <v>0.001456617377577595</v>
       </c>
       <c r="D51">
-        <v>0.001390276749149717</v>
+        <v>-0.009900549458432184</v>
       </c>
       <c r="E51">
-        <v>0.006216390840625479</v>
+        <v>0.007910760396154201</v>
       </c>
       <c r="F51">
-        <v>-0.1012500694549992</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.003453386672288413</v>
+      </c>
+      <c r="G51">
+        <v>0.03992706255971784</v>
+      </c>
+      <c r="H51">
+        <v>-0.0558040649973528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08058665580150721</v>
+        <v>-0.0806090331127146</v>
       </c>
       <c r="C53">
-        <v>-0.06308597920287315</v>
+        <v>-0.03184926294800169</v>
       </c>
       <c r="D53">
-        <v>-0.02141106952268982</v>
+        <v>-0.09266158365775741</v>
       </c>
       <c r="E53">
-        <v>-0.05138914910515166</v>
+        <v>0.006254934597921852</v>
       </c>
       <c r="F53">
-        <v>0.02763304921614314</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02902751638484406</v>
+      </c>
+      <c r="G53">
+        <v>-0.03855148527975016</v>
+      </c>
+      <c r="H53">
+        <v>0.03193049891541246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01913442913617028</v>
+        <v>-0.02770493341836627</v>
       </c>
       <c r="C54">
-        <v>-0.001653770847515585</v>
+        <v>-0.007613279722797939</v>
       </c>
       <c r="D54">
-        <v>-0.01218872852399866</v>
+        <v>0.009920166352865325</v>
       </c>
       <c r="E54">
-        <v>-0.02343767568712547</v>
+        <v>0.007913329668673951</v>
       </c>
       <c r="F54">
-        <v>-0.04792267350575948</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.004999885748921139</v>
+      </c>
+      <c r="G54">
+        <v>0.03858898826375854</v>
+      </c>
+      <c r="H54">
+        <v>-0.006747744759385881</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08592002320728108</v>
+        <v>-0.0658722012204782</v>
       </c>
       <c r="C55">
-        <v>-0.05393987572987787</v>
+        <v>-0.02858240510221124</v>
       </c>
       <c r="D55">
-        <v>-0.02944698825179336</v>
+        <v>-0.08749307986629754</v>
       </c>
       <c r="E55">
-        <v>-0.05370727199517777</v>
+        <v>0.01367759910583859</v>
       </c>
       <c r="F55">
-        <v>0.02254270395385273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02082499920427509</v>
+      </c>
+      <c r="G55">
+        <v>-0.01651826782011873</v>
+      </c>
+      <c r="H55">
+        <v>0.04112508730499206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1156032562361038</v>
+        <v>-0.1140853665667222</v>
       </c>
       <c r="C56">
-        <v>-0.09177255529802079</v>
+        <v>-0.04849724862908245</v>
       </c>
       <c r="D56">
-        <v>0.005703253170133485</v>
+        <v>-0.1131923538033279</v>
       </c>
       <c r="E56">
-        <v>-0.09371986904341746</v>
+        <v>0.004467535949783252</v>
       </c>
       <c r="F56">
-        <v>0.05695820834156749</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05336006652872392</v>
+      </c>
+      <c r="G56">
+        <v>-0.07103664674117714</v>
+      </c>
+      <c r="H56">
+        <v>0.06136018170961574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03427237357282088</v>
+        <v>-0.03315769485347735</v>
       </c>
       <c r="C57">
-        <v>-0.0401179293166095</v>
+        <v>0.01305505268070874</v>
       </c>
       <c r="D57">
-        <v>-0.01444893171925189</v>
+        <v>-0.03501219120838236</v>
       </c>
       <c r="E57">
-        <v>0.005211193922816259</v>
+        <v>-0.009641353406315148</v>
       </c>
       <c r="F57">
-        <v>-0.05591910551177742</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.006521639417629322</v>
+      </c>
+      <c r="G57">
+        <v>0.07117705638461459</v>
+      </c>
+      <c r="H57">
+        <v>-0.05377530852954556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1286642652888861</v>
+        <v>-0.1353848816252704</v>
       </c>
       <c r="C58">
-        <v>-0.2146288336918738</v>
+        <v>-0.04131416762895241</v>
       </c>
       <c r="D58">
-        <v>-0.1453826923452678</v>
+        <v>-0.164137099108181</v>
       </c>
       <c r="E58">
-        <v>-0.03348677533230832</v>
+        <v>-0.2227259984247622</v>
       </c>
       <c r="F58">
-        <v>-0.3508930111989781</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.07647591240423791</v>
+      </c>
+      <c r="G58">
+        <v>0.8075859017211809</v>
+      </c>
+      <c r="H58">
+        <v>0.4078272904198462</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04050122575956026</v>
+        <v>-0.182812237604396</v>
       </c>
       <c r="C59">
-        <v>-0.03176373595988836</v>
+        <v>-0.004700343275464153</v>
       </c>
       <c r="D59">
-        <v>0.1688236835379709</v>
+        <v>0.2034968344429731</v>
       </c>
       <c r="E59">
-        <v>0.09459584675609865</v>
+        <v>-0.006710952010902889</v>
       </c>
       <c r="F59">
-        <v>-0.08058916702393651</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.001078005686251494</v>
+      </c>
+      <c r="G59">
+        <v>0.01837850773440508</v>
+      </c>
+      <c r="H59">
+        <v>-0.02865594867540986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1102568592292053</v>
+        <v>-0.1956750869581383</v>
       </c>
       <c r="C60">
-        <v>-0.1284043915350687</v>
+        <v>-0.02363122741496766</v>
       </c>
       <c r="D60">
-        <v>0.003594245633764437</v>
+        <v>-0.03268299774247504</v>
       </c>
       <c r="E60">
-        <v>0.03913419572858225</v>
+        <v>-0.05560853888866066</v>
       </c>
       <c r="F60">
-        <v>-0.1850624633090363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.05302529414292022</v>
+      </c>
+      <c r="G60">
+        <v>0.02831917589607532</v>
+      </c>
+      <c r="H60">
+        <v>-0.3612826656901181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02258076043760382</v>
+        <v>-0.01912716823117286</v>
       </c>
       <c r="C61">
-        <v>-0.01518666046586074</v>
+        <v>-0.009309334240315171</v>
       </c>
       <c r="D61">
-        <v>-0.03222019686737737</v>
+        <v>-0.05700179066374031</v>
       </c>
       <c r="E61">
-        <v>-0.02897640180463714</v>
+        <v>0.00228383333863985</v>
       </c>
       <c r="F61">
-        <v>-0.03844515481240011</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.02102542406199797</v>
+      </c>
+      <c r="G61">
+        <v>0.0266274984183757</v>
+      </c>
+      <c r="H61">
+        <v>-0.06087867101054407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01017162236426307</v>
+        <v>-0.009667246773525708</v>
       </c>
       <c r="C63">
-        <v>-0.007473658410357517</v>
+        <v>0.002110666532987133</v>
       </c>
       <c r="D63">
-        <v>-0.03034218487587624</v>
+        <v>-0.02415114646753052</v>
       </c>
       <c r="E63">
-        <v>-0.02080962193092202</v>
+        <v>0.005215602297812617</v>
       </c>
       <c r="F63">
-        <v>-0.01515784986110284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01089269246598087</v>
+      </c>
+      <c r="G63">
+        <v>0.01786232051985304</v>
+      </c>
+      <c r="H63">
+        <v>-0.01424706852594299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03877388007212449</v>
+        <v>-0.03663952042300891</v>
       </c>
       <c r="C64">
-        <v>-0.009417831466026712</v>
+        <v>-0.008654513814368556</v>
       </c>
       <c r="D64">
-        <v>-0.02396893944520532</v>
+        <v>-0.04340925952617507</v>
       </c>
       <c r="E64">
-        <v>-0.03750767358654968</v>
+        <v>0.01255139688630373</v>
       </c>
       <c r="F64">
-        <v>-0.0391637645353038</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.003067621930267947</v>
+      </c>
+      <c r="G64">
+        <v>0.005755485316677923</v>
+      </c>
+      <c r="H64">
+        <v>-0.0451820221271147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03512058035122822</v>
+        <v>-0.03932077501762795</v>
       </c>
       <c r="C65">
-        <v>-0.01945342094297877</v>
+        <v>-0.001401527194278298</v>
       </c>
       <c r="D65">
-        <v>-0.01844296858526447</v>
+        <v>-0.0702452910799243</v>
       </c>
       <c r="E65">
-        <v>-0.02680421829051935</v>
+        <v>0.005534165170811513</v>
       </c>
       <c r="F65">
-        <v>-0.009763665514951137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03891724687766941</v>
+      </c>
+      <c r="G65">
+        <v>-0.005149728793584197</v>
+      </c>
+      <c r="H65">
+        <v>-0.07409682926560761</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02793247576722671</v>
+        <v>-0.01808964699768759</v>
       </c>
       <c r="C66">
-        <v>-0.03669442299806765</v>
+        <v>-0.01281176926241909</v>
       </c>
       <c r="D66">
-        <v>-0.04844724041360109</v>
+        <v>-0.1120694145675234</v>
       </c>
       <c r="E66">
-        <v>-0.05840368022330714</v>
+        <v>-0.01060617179301275</v>
       </c>
       <c r="F66">
-        <v>-0.05905464038626252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03863139175892054</v>
+      </c>
+      <c r="G66">
+        <v>0.03743741521426033</v>
+      </c>
+      <c r="H66">
+        <v>-0.08332329378672008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01076017369382199</v>
+        <v>-0.04595317237517312</v>
       </c>
       <c r="C67">
-        <v>-0.01424121715015144</v>
+        <v>-0.01690703140278704</v>
       </c>
       <c r="D67">
-        <v>0.001824079807069909</v>
+        <v>-0.01797671759227635</v>
       </c>
       <c r="E67">
-        <v>0.02148633238296602</v>
+        <v>-0.003869924346332325</v>
       </c>
       <c r="F67">
-        <v>-0.03354067709116526</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01842276243554193</v>
+      </c>
+      <c r="G67">
+        <v>0.01514551660145508</v>
+      </c>
+      <c r="H67">
+        <v>-0.04417291413558206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05930581985494494</v>
+        <v>-0.1809852588480584</v>
       </c>
       <c r="C68">
-        <v>-0.03161494486801526</v>
+        <v>0.01851664144069326</v>
       </c>
       <c r="D68">
-        <v>0.1868326406226182</v>
+        <v>0.2243782770710207</v>
       </c>
       <c r="E68">
-        <v>0.1028477208558824</v>
+        <v>-0.004772289638746458</v>
       </c>
       <c r="F68">
-        <v>-0.05745076579151116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.03909766457954814</v>
+      </c>
+      <c r="G68">
+        <v>0.02818413070260894</v>
+      </c>
+      <c r="H68">
+        <v>0.05206980001570938</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05476285331180217</v>
+        <v>-0.05973663738991042</v>
       </c>
       <c r="C69">
-        <v>-0.04765306757940577</v>
+        <v>-0.02684008078310508</v>
       </c>
       <c r="D69">
-        <v>-0.003269924094685128</v>
+        <v>-0.05072262233949267</v>
       </c>
       <c r="E69">
-        <v>-0.04500373833005382</v>
+        <v>0.001817263526654924</v>
       </c>
       <c r="F69">
-        <v>-0.03547423385758298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02942255532384765</v>
+      </c>
+      <c r="G69">
+        <v>-0.01053145627538889</v>
+      </c>
+      <c r="H69">
+        <v>-0.00938249856100065</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.059177340911205</v>
+        <v>-0.1652380223680379</v>
       </c>
       <c r="C71">
-        <v>-0.03982545627509082</v>
+        <v>0.006716338355831093</v>
       </c>
       <c r="D71">
-        <v>0.1880915746427935</v>
+        <v>0.1836896441843418</v>
       </c>
       <c r="E71">
-        <v>0.1521118917014475</v>
+        <v>-0.01059265230833835</v>
       </c>
       <c r="F71">
-        <v>-0.05736590850809368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.04781416082930847</v>
+      </c>
+      <c r="G71">
+        <v>0.03139752158474072</v>
+      </c>
+      <c r="H71">
+        <v>0.02168343205087086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09050534240062412</v>
+        <v>-0.07212157142188105</v>
       </c>
       <c r="C72">
-        <v>-0.08459875606242023</v>
+        <v>-0.03539497754523847</v>
       </c>
       <c r="D72">
-        <v>-0.009416931108322195</v>
+        <v>-0.08518393658494089</v>
       </c>
       <c r="E72">
-        <v>-0.07571762971659511</v>
+        <v>-0.01583121360224629</v>
       </c>
       <c r="F72">
-        <v>-0.07627779159722968</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.0653779851212762</v>
+      </c>
+      <c r="G72">
+        <v>0.02190282176822561</v>
+      </c>
+      <c r="H72">
+        <v>-0.1324129089007276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1463047743119225</v>
+        <v>-0.2546431714006346</v>
       </c>
       <c r="C73">
-        <v>-0.2049614097047828</v>
+        <v>-0.03475772101722007</v>
       </c>
       <c r="D73">
-        <v>0.02932623071048735</v>
+        <v>-0.1073659975513356</v>
       </c>
       <c r="E73">
-        <v>0.1017709722767473</v>
+        <v>-0.09721058911105392</v>
       </c>
       <c r="F73">
-        <v>-0.2312764353088033</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.05909400302109643</v>
+      </c>
+      <c r="G73">
+        <v>0.04865528547063099</v>
+      </c>
+      <c r="H73">
+        <v>-0.4642376930085909</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1086948295301625</v>
+        <v>-0.1116377706360101</v>
       </c>
       <c r="C74">
-        <v>-0.08529104380572905</v>
+        <v>-0.047945101842934</v>
       </c>
       <c r="D74">
-        <v>-0.007855570022032288</v>
+        <v>-0.1164858604449598</v>
       </c>
       <c r="E74">
-        <v>-0.05591032936483884</v>
+        <v>0.009523920790220649</v>
       </c>
       <c r="F74">
-        <v>0.06906794323943467</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03787006286246306</v>
+      </c>
+      <c r="G74">
+        <v>-0.05570408295966144</v>
+      </c>
+      <c r="H74">
+        <v>0.02483495498410047</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1744684798144197</v>
+        <v>-0.2191002937476231</v>
       </c>
       <c r="C75">
-        <v>-0.1589589562692035</v>
+        <v>-0.08926462797179498</v>
       </c>
       <c r="D75">
-        <v>0.02383678485588388</v>
+        <v>-0.1793873318590187</v>
       </c>
       <c r="E75">
-        <v>-0.1455729609840369</v>
+        <v>-0.007445152087342404</v>
       </c>
       <c r="F75">
-        <v>0.1011370131237927</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.09651296301519442</v>
+      </c>
+      <c r="G75">
+        <v>-0.1240761978026083</v>
+      </c>
+      <c r="H75">
+        <v>0.1256557445123911</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2360678313271703</v>
+        <v>-0.1775087720128902</v>
       </c>
       <c r="C76">
-        <v>-0.1572681839489379</v>
+        <v>-0.0819104157659663</v>
       </c>
       <c r="D76">
-        <v>0.03481816547821055</v>
+        <v>-0.180345729561013</v>
       </c>
       <c r="E76">
-        <v>-0.1981477961688058</v>
+        <v>0.03967718765502818</v>
       </c>
       <c r="F76">
-        <v>0.1766444730548502</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.09012396573726031</v>
+      </c>
+      <c r="G76">
+        <v>-0.1213264930821458</v>
+      </c>
+      <c r="H76">
+        <v>0.1233252532969162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09460135325708886</v>
+        <v>-0.06271877451195358</v>
       </c>
       <c r="C77">
-        <v>-0.09311911567830909</v>
+        <v>-0.009788565385258179</v>
       </c>
       <c r="D77">
-        <v>-0.1173178078676504</v>
+        <v>-0.08509450990804047</v>
       </c>
       <c r="E77">
-        <v>-0.0123467965480776</v>
+        <v>-0.01641784346793584</v>
       </c>
       <c r="F77">
-        <v>-0.1690095053229133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01613479952518764</v>
+      </c>
+      <c r="G77">
+        <v>0.07759745274264607</v>
+      </c>
+      <c r="H77">
+        <v>-0.02099400622004698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06335938291843747</v>
+        <v>-0.03393190499223463</v>
       </c>
       <c r="C78">
-        <v>-0.04782260712643781</v>
+        <v>-0.01167433269821657</v>
       </c>
       <c r="D78">
-        <v>-0.08329389694909432</v>
+        <v>-0.07101958472128481</v>
       </c>
       <c r="E78">
-        <v>-0.0516274893049977</v>
+        <v>0.002332464876338052</v>
       </c>
       <c r="F78">
-        <v>-0.1068244953104429</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01947928654626935</v>
+      </c>
+      <c r="G78">
+        <v>0.06559312560185179</v>
+      </c>
+      <c r="H78">
+        <v>-0.0900937972814957</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.6729344438785022</v>
+        <v>-0.1284947532390722</v>
       </c>
       <c r="C80">
-        <v>0.7199394034403692</v>
+        <v>-0.02989037037489263</v>
       </c>
       <c r="D80">
-        <v>-0.06475433287854167</v>
+        <v>-0.100223920980624</v>
       </c>
       <c r="E80">
-        <v>0.03393593299460462</v>
+        <v>0.9303921756165061</v>
       </c>
       <c r="F80">
-        <v>-0.03358989088038188</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.2238281989935661</v>
+      </c>
+      <c r="G80">
+        <v>0.1599868851930963</v>
+      </c>
+      <c r="H80">
+        <v>0.0007143833448926771</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1467101501549322</v>
+        <v>-0.1450999119602261</v>
       </c>
       <c r="C81">
-        <v>-0.1134154510071207</v>
+        <v>-0.05830089399388903</v>
       </c>
       <c r="D81">
-        <v>0.03800496456199984</v>
+        <v>-0.1181631536680195</v>
       </c>
       <c r="E81">
-        <v>-0.1279027315777493</v>
+        <v>0.01223481042081821</v>
       </c>
       <c r="F81">
-        <v>0.10614762794928</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.0661071530017764</v>
+      </c>
+      <c r="G81">
+        <v>-0.08278972628994503</v>
+      </c>
+      <c r="H81">
+        <v>0.08313407783659492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02723173354695309</v>
+        <v>-0.03150203461602748</v>
       </c>
       <c r="C83">
-        <v>-0.03183655160057306</v>
+        <v>-0.004798265639108651</v>
       </c>
       <c r="D83">
-        <v>-0.02511192617901012</v>
+        <v>-0.02596478112789929</v>
       </c>
       <c r="E83">
-        <v>-0.004843360434177443</v>
+        <v>-0.008428848565323062</v>
       </c>
       <c r="F83">
-        <v>-0.07630887701367016</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.009163577728829485</v>
+      </c>
+      <c r="G83">
+        <v>0.04820846331635428</v>
+      </c>
+      <c r="H83">
+        <v>-0.04455096888626975</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2090538492218788</v>
+        <v>-0.1991493351699337</v>
       </c>
       <c r="C85">
-        <v>-0.1703459627672927</v>
+        <v>-0.07308738438791568</v>
       </c>
       <c r="D85">
-        <v>0.02522541598589124</v>
+        <v>-0.189531034180242</v>
       </c>
       <c r="E85">
-        <v>-0.1481972518770925</v>
+        <v>-0.003682808455380283</v>
       </c>
       <c r="F85">
-        <v>0.1216089512080135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.08019306461731153</v>
+      </c>
+      <c r="G85">
+        <v>-0.1403057401217354</v>
+      </c>
+      <c r="H85">
+        <v>0.08655291806515976</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.009747773121787312</v>
+        <v>-0.01802276235691254</v>
       </c>
       <c r="C86">
-        <v>-0.006897549440883828</v>
+        <v>-0.001412190302645812</v>
       </c>
       <c r="D86">
-        <v>-0.04698180603147911</v>
+        <v>-0.03992789157968116</v>
       </c>
       <c r="E86">
-        <v>-0.01227499754003972</v>
+        <v>0.0009086755094716588</v>
       </c>
       <c r="F86">
-        <v>-0.08097296736406336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.005875712455303019</v>
+      </c>
+      <c r="G86">
+        <v>0.05302870913806531</v>
+      </c>
+      <c r="H86">
+        <v>-0.1038050699449109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03934840946626546</v>
+        <v>-0.02070494084822273</v>
       </c>
       <c r="C87">
-        <v>-0.02186286078813602</v>
+        <v>-0.00250521962538714</v>
       </c>
       <c r="D87">
-        <v>-0.03097300521666444</v>
+        <v>-0.04980270680418237</v>
       </c>
       <c r="E87">
-        <v>0.0001826658562693597</v>
+        <v>0.004480937938045122</v>
       </c>
       <c r="F87">
-        <v>-0.118578438516828</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.004138930913383485</v>
+      </c>
+      <c r="G87">
+        <v>0.0817276995483389</v>
+      </c>
+      <c r="H87">
+        <v>-0.08465745275294645</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01790571238005302</v>
+        <v>-0.03870142880554455</v>
       </c>
       <c r="C88">
-        <v>0.0006906110889234087</v>
+        <v>0.01180565148053403</v>
       </c>
       <c r="D88">
-        <v>0.01233714867147457</v>
+        <v>-0.02305079102761226</v>
       </c>
       <c r="E88">
-        <v>-0.01739434544268299</v>
+        <v>0.01354722786227957</v>
       </c>
       <c r="F88">
-        <v>-0.00423342252686471</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01775967394312156</v>
+      </c>
+      <c r="G88">
+        <v>0.002552111777715043</v>
+      </c>
+      <c r="H88">
+        <v>-0.02284550358739407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07589168113834736</v>
+        <v>-0.2850822463677815</v>
       </c>
       <c r="C89">
-        <v>-0.05458915265695239</v>
+        <v>0.01424419653891878</v>
       </c>
       <c r="D89">
-        <v>0.2810601075297481</v>
+        <v>0.3263429126238597</v>
       </c>
       <c r="E89">
-        <v>0.181299356772794</v>
+        <v>-0.01348556723609721</v>
       </c>
       <c r="F89">
-        <v>-0.08459210198955179</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02666907397915252</v>
+      </c>
+      <c r="G89">
+        <v>-0.01009331122687368</v>
+      </c>
+      <c r="H89">
+        <v>-0.01746120824308312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07355271320774209</v>
+        <v>-0.2335820502605595</v>
       </c>
       <c r="C90">
-        <v>-0.02962439017697666</v>
+        <v>0.01357335520838877</v>
       </c>
       <c r="D90">
-        <v>0.3063171647963311</v>
+        <v>0.2957184440741404</v>
       </c>
       <c r="E90">
-        <v>0.1944454167407403</v>
+        <v>-0.001678553474316064</v>
       </c>
       <c r="F90">
-        <v>-0.05450733286017324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05300078389243677</v>
+      </c>
+      <c r="G90">
+        <v>-0.007909281207696524</v>
+      </c>
+      <c r="H90">
+        <v>0.0454988190220905</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2373999038983688</v>
+        <v>-0.2173651224471862</v>
       </c>
       <c r="C91">
-        <v>-0.2098373442272303</v>
+        <v>-0.08628072269464523</v>
       </c>
       <c r="D91">
-        <v>0.0265505922602892</v>
+        <v>-0.1697859766003702</v>
       </c>
       <c r="E91">
-        <v>-0.1632178378621194</v>
+        <v>-0.009491737557462306</v>
       </c>
       <c r="F91">
-        <v>0.23500757017362</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.08342683741817905</v>
+      </c>
+      <c r="G91">
+        <v>-0.1456483128837067</v>
+      </c>
+      <c r="H91">
+        <v>0.1637074275059744</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1411890622849919</v>
+        <v>-0.2728494002571551</v>
       </c>
       <c r="C92">
-        <v>-0.08128046298598307</v>
+        <v>-0.05136159332065506</v>
       </c>
       <c r="D92">
-        <v>0.446461326076577</v>
+        <v>0.2146265375316875</v>
       </c>
       <c r="E92">
-        <v>0.06296358007986906</v>
+        <v>0.01023360272530679</v>
       </c>
       <c r="F92">
-        <v>0.06307368888680123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.01669826214357527</v>
+      </c>
+      <c r="G92">
+        <v>0.02506656002459307</v>
+      </c>
+      <c r="H92">
+        <v>0.1160396314206829</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06119085883998641</v>
+        <v>-0.2614514502359304</v>
       </c>
       <c r="C93">
-        <v>-0.05963387425362324</v>
+        <v>0.004238529815665611</v>
       </c>
       <c r="D93">
-        <v>0.3856677523064254</v>
+        <v>0.3052792142207849</v>
       </c>
       <c r="E93">
-        <v>0.2556761775459298</v>
+        <v>-0.0296252933256125</v>
       </c>
       <c r="F93">
-        <v>-0.02008263103107903</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.05293606179082912</v>
+      </c>
+      <c r="G93">
+        <v>-0.007320210943922552</v>
+      </c>
+      <c r="H93">
+        <v>-0.008880740722203153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2285152128889815</v>
+        <v>-0.2747581308249453</v>
       </c>
       <c r="C94">
-        <v>-0.2162122665872187</v>
+        <v>-0.08278286079667262</v>
       </c>
       <c r="D94">
-        <v>0.08680596172111864</v>
+        <v>-0.1719063884034011</v>
       </c>
       <c r="E94">
-        <v>-0.2414986073325263</v>
+        <v>-0.03379566252571625</v>
       </c>
       <c r="F94">
-        <v>0.1730225642543182</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1890075253532623</v>
+      </c>
+      <c r="G94">
+        <v>-0.2320406237288518</v>
+      </c>
+      <c r="H94">
+        <v>0.3011710612323881</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.007418141745531432</v>
+        <v>-0.0466215195907797</v>
       </c>
       <c r="C95">
-        <v>-0.08815868570445871</v>
+        <v>-0.03005751548344816</v>
       </c>
       <c r="D95">
-        <v>-0.06737152557331351</v>
+        <v>-0.08948145615748979</v>
       </c>
       <c r="E95">
-        <v>-0.02037815635373187</v>
+        <v>-0.08213742505592576</v>
       </c>
       <c r="F95">
-        <v>-0.06148259096431171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.008111797223923592</v>
+      </c>
+      <c r="G95">
+        <v>0.04984027667727593</v>
+      </c>
+      <c r="H95">
+        <v>-0.05763185976667457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1173172340496695</v>
+        <v>-0.1808640192147619</v>
       </c>
       <c r="C98">
-        <v>-0.1287130044533205</v>
+        <v>-0.05115766498958273</v>
       </c>
       <c r="D98">
-        <v>0.02172783267637596</v>
+        <v>-0.05048951057451585</v>
       </c>
       <c r="E98">
-        <v>0.08811130077858152</v>
+        <v>-0.06029512464482266</v>
       </c>
       <c r="F98">
-        <v>-0.1429050453962103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.007683285081574777</v>
+      </c>
+      <c r="G98">
+        <v>0.08390232882251109</v>
+      </c>
+      <c r="H98">
+        <v>-0.3302026395774516</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01174643202595014</v>
+        <v>-0.01418055359122805</v>
       </c>
       <c r="C101">
-        <v>5.772409007388463e-05</v>
+        <v>0.0006120985121499028</v>
       </c>
       <c r="D101">
-        <v>-0.05294965684586704</v>
+        <v>-0.01738464392794378</v>
       </c>
       <c r="E101">
-        <v>-0.05189476999944973</v>
+        <v>0.00499378447164094</v>
       </c>
       <c r="F101">
-        <v>-0.1656775526828308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01765838323509108</v>
+      </c>
+      <c r="G101">
+        <v>0.1020690305898668</v>
+      </c>
+      <c r="H101">
+        <v>0.0176914046867246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09404883778147505</v>
+        <v>-0.09676144342138303</v>
       </c>
       <c r="C102">
-        <v>-0.0746255776762685</v>
+        <v>-0.02849152424340989</v>
       </c>
       <c r="D102">
-        <v>0.003192072316527781</v>
+        <v>-0.09113775625410168</v>
       </c>
       <c r="E102">
-        <v>-0.08302115055152777</v>
+        <v>0.00393829074842245</v>
       </c>
       <c r="F102">
-        <v>0.07923572452427662</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.0471009435936063</v>
+      </c>
+      <c r="G102">
+        <v>-0.07238355272932157</v>
+      </c>
+      <c r="H102">
+        <v>0.06560451062817281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03962016348148011</v>
+        <v>-0.01427707057809912</v>
       </c>
       <c r="C103">
-        <v>-0.01868071069985222</v>
+        <v>-0.005328039838499256</v>
       </c>
       <c r="D103">
-        <v>-0.007475401381683214</v>
+        <v>-0.01625029874554101</v>
       </c>
       <c r="E103">
-        <v>-0.04298750048500273</v>
+        <v>0.01064500531984562</v>
       </c>
       <c r="F103">
-        <v>-0.008196200880376057</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.00716410014480716</v>
+      </c>
+      <c r="G103">
+        <v>0.002312016941354954</v>
+      </c>
+      <c r="H103">
+        <v>0.0109635677356969</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1579408916513639</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9648667961230015</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1217486871645188</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02802368552067414</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1304530585562355</v>
+      </c>
+      <c r="G104">
+        <v>-0.0122032784600001</v>
+      </c>
+      <c r="H104">
+        <v>0.04948649050136379</v>
       </c>
     </row>
   </sheetData>
